--- a/CashFlow/MRVL_cashflow.xlsx
+++ b/CashFlow/MRVL_cashflow.xlsx
@@ -74,7 +74,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="28.6"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="14.3"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1069000000.0</v>
+        <v>29913000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1124000000.0</v>
+        <v>73178000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>816724000.0</v>
+        <v>39886000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>546550000.0</v>
+        <v>32745000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>292398000.0</v>
+        <v>12759000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-28113000.0</v>
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>39663000.0</v>
+        <v>901000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>5625000.0</v>
+        <v>863000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>11556000.0</v>
+        <v>650052000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-102618000.0</v>
+        <v>330082000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-123474000.0</v>
+        <v>119669000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>-62711000.0</v>
